--- a/data/case1/14/Qlm1_13.xlsx
+++ b/data/case1/14/Qlm1_13.xlsx
@@ -56,264 +56,264 @@
   <dimension ref="A1:B32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="true"/>
-    <col min="2" max="2" width="16.42578125" customWidth="true"/>
+    <col min="1" max="1" width="15.42578125" customWidth="true"/>
+    <col min="2" max="2" width="14.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.091035944889796383</v>
+        <v>-0.094724588703769541</v>
       </c>
       <c r="B1" s="0">
-        <v>0.091005621410715776</v>
+        <v>0.094689250771075706</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.068902142532832222</v>
+        <v>-0.072584806478448449</v>
       </c>
       <c r="B2" s="0">
-        <v>0.06882481436535226</v>
+        <v>0.072497166465987917</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.019124179527794993</v>
+        <v>-0.022795891204763663</v>
       </c>
       <c r="B3" s="0">
-        <v>0.019031134606809275</v>
+        <v>0.022708145759018805</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.011031134665666187</v>
+        <v>-0.014708145806235251</v>
       </c>
       <c r="B4" s="0">
-        <v>0.010565000548126591</v>
+        <v>0.014222713428843292</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0075650005740541815</v>
+        <v>-0.011222713449978272</v>
       </c>
       <c r="B5" s="0">
-        <v>0.005968346974261074</v>
+        <v>0.0095595318596117806</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0048534749124904408</v>
+        <v>0.0042136224721893711</v>
       </c>
       <c r="B6" s="0">
-        <v>0.0043408176830936895</v>
+        <v>-0.0044441287699168441</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.0056591822423461835</v>
+        <v>0.014444128709740767</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.0057912069081256234</v>
+        <v>-0.014494364527986914</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.015791206833938976</v>
+        <v>0.024494364468697682</v>
       </c>
       <c r="B8" s="0">
-        <v>-0.016058569328610162</v>
+        <v>-0.024584211120325605</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.018058569309999939</v>
+        <v>0.026584211106190025</v>
       </c>
       <c r="B9" s="0">
-        <v>-0.018288767262807148</v>
+        <v>-0.026660168386907657</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.020288767246366746</v>
+        <v>-0.027394431567280719</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.02030421671095084</v>
+        <v>0.027379426963408449</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.00045498719382219832</v>
+        <v>-0.024379426980860153</v>
       </c>
       <c r="B11" s="0">
-        <v>-0.00048057882837415633</v>
+        <v>0.024353951516760119</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.0039805788022087008</v>
+        <v>-0.020853951537453064</v>
       </c>
       <c r="B12" s="0">
-        <v>-0.0041796248870404895</v>
+        <v>0.020665557789395272</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.0076796248615300655</v>
+        <v>-0.017165557813531684</v>
       </c>
       <c r="B13" s="0">
-        <v>-0.0077767095599732272</v>
+        <v>0.017079780331878069</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.015776709504677022</v>
+        <v>-0.0090797803811168976</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.015822074384900908</v>
+        <v>0.0090517884760918932</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0080520617761816737</v>
+        <v>-0.0080517884883324342</v>
       </c>
       <c r="B15" s="0">
-        <v>0.008033930132381073</v>
+        <v>0.0080337141027522208</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.00603393014701048</v>
+        <v>-0.0060337141209161338</v>
       </c>
       <c r="B16" s="0">
-        <v>0.0060033116181381629</v>
+        <v>0.0060034120637779687</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.004003311633753448</v>
+        <v>-0.0040034120827785458</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0039999999706328282</v>
+        <v>0.003999999970089263</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.016103478918637393</v>
+        <v>-0.016104444324842149</v>
       </c>
       <c r="B18" s="0">
-        <v>0.016091029861510009</v>
+        <v>0.016091306863600607</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.012091029888926297</v>
+        <v>-0.012091306885170017</v>
       </c>
       <c r="B19" s="0">
-        <v>0.012016358841849151</v>
+        <v>0.012016646345022419</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0080163588713819678</v>
+        <v>-0.0080166463684534506</v>
       </c>
       <c r="B20" s="0">
-        <v>0.0080055699916652401</v>
+        <v>0.0080056593283686084</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0040055700215155809</v>
+        <v>-0.0040056593520851891</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0039999999698858701</v>
+        <v>0.0039999999761084482</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.04570063486870346</v>
+        <v>-0.045701275286120335</v>
       </c>
       <c r="B22" s="0">
-        <v>0.045490879801839412</v>
+        <v>0.045491205525898692</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.04049087984184041</v>
+        <v>-0.040491205557957599</v>
       </c>
       <c r="B23" s="0">
-        <v>0.040097351290465433</v>
+        <v>0.040097460105165794</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.020097351435155453</v>
+        <v>-0.020097460221417229</v>
       </c>
       <c r="B24" s="0">
-        <v>0.019999999853227202</v>
+        <v>0.019999999882048591</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.00088512791765715804</v>
+        <v>-0.011773154349036474</v>
       </c>
       <c r="B25" s="0">
-        <v>-0.00091334192700109895</v>
+        <v>0.011695125553067953</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.003413341903128142</v>
+        <v>-0.0091951255731608228</v>
       </c>
       <c r="B26" s="0">
-        <v>-0.0034474389129357519</v>
+        <v>0.0090969649923913209</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.0059474388891320729</v>
+        <v>-0.0065969650127577495</v>
       </c>
       <c r="B27" s="0">
-        <v>-0.0061368723255794677</v>
+        <v>0.0060297960836739328</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.008136872305684939</v>
+        <v>-0.0040297961023636475</v>
       </c>
       <c r="B28" s="0">
-        <v>-0.0082513365462508759</v>
+        <v>0.0036567513113707761</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.014713409791696108</v>
+        <v>-0.056675798260207522</v>
       </c>
       <c r="B29" s="0">
-        <v>0.014612662567406787</v>
+        <v>0.056544884846355892</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.021162256911848587</v>
+        <v>-0.021165912848355006</v>
       </c>
       <c r="B30" s="0">
-        <v>0.021021668724765075</v>
+        <v>0.021022693030058992</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014021668781074581</v>
+        <v>-0.014022693081180648</v>
       </c>
       <c r="B31" s="0">
-        <v>0.014000997319751463</v>
+        <v>0.014001239496391094</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0040009973966679269</v>
+        <v>-0.004001239563999448</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0039999999632733818</v>
+        <v>0.0039999999644955153</v>
       </c>
     </row>
   </sheetData>
